--- a/php/buku_tamu.xlsx
+++ b/php/buku_tamu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Email Pemohon</t>
   </si>
   <si>
-    <t>Joko</t>
+    <t>Joko Widodo</t>
   </si>
   <si>
     <t>Jl Pahlawan No 123</t>
@@ -65,7 +65,7 @@
     <t>082132131313213</t>
   </si>
   <si>
-    <t>Anton Junior</t>
+    <t>Anton Junior Kurniawan</t>
   </si>
   <si>
     <t>Memberikan Kiriman</t>
@@ -83,52 +83,16 @@
     <t>owner@email.com</t>
   </si>
   <si>
-    <t>Anwar</t>
-  </si>
-  <si>
-    <t>06:43:00</t>
-  </si>
-  <si>
-    <t>2024-07-16</t>
-  </si>
-  <si>
-    <t>nurul@gmail.com</t>
-  </si>
-  <si>
-    <t>Jado</t>
-  </si>
-  <si>
-    <t>09:47:00</t>
-  </si>
-  <si>
-    <t>2024-08-08</t>
-  </si>
-  <si>
-    <t>Asep Sumiati</t>
-  </si>
-  <si>
-    <t>14:23:00</t>
+    <t>Wawuhaaaay</t>
+  </si>
+  <si>
+    <t>14:25:00</t>
   </si>
   <si>
     <t>bintantramy@gmail.com</t>
   </si>
   <si>
-    <t>Wawuh</t>
-  </si>
-  <si>
-    <t>14:25:00</t>
-  </si>
-  <si>
-    <t>Ahik</t>
-  </si>
-  <si>
-    <t>12:26:00</t>
-  </si>
-  <si>
-    <t>2024-07-23</t>
-  </si>
-  <si>
-    <t>Antek</t>
+    <t>Antekaaaa</t>
   </si>
   <si>
     <t>14:54:00</t>
@@ -195,42 +159,6 @@
   </si>
   <si>
     <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>Dims</t>
-  </si>
-  <si>
-    <t>Arkan</t>
-  </si>
-  <si>
-    <t>Bermain Futsal</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>2024-07-17</t>
-  </si>
-  <si>
-    <t>Wadidaw</t>
-  </si>
-  <si>
-    <t>Kuy</t>
-  </si>
-  <si>
-    <t>Bermain Futrsal</t>
-  </si>
-  <si>
-    <t>19:21:00</t>
-  </si>
-  <si>
-    <t>Yeahh</t>
-  </si>
-  <si>
-    <t>00:24:00</t>
-  </si>
-  <si>
-    <t>2024-07-19</t>
   </si>
 </sst>
 </file>
@@ -570,7 +498,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +608,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -689,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -697,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -715,10 +643,10 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -727,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -735,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -753,10 +681,10 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -765,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -773,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -791,10 +719,10 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -803,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -811,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -829,10 +757,10 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -841,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -849,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -867,10 +795,10 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -879,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -887,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -905,10 +833,10 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -917,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -925,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -955,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -984,7 +912,7 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -993,273 +921,7 @@
         <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>6285795715960</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>6285795715960</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>6285795715960</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/php/buku_tamu.xlsx
+++ b/php/buku_tamu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -38,7 +38,10 @@
     <t>Keperluan</t>
   </si>
   <si>
-    <t>Jam</t>
+    <t>Jam Janji</t>
+  </si>
+  <si>
+    <t>Jam Masuk</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -74,6 +77,9 @@
     <t>09:58:00</t>
   </si>
   <si>
+    <t>09:57:00</t>
+  </si>
+  <si>
     <t>2024-08-01</t>
   </si>
   <si>
@@ -83,15 +89,27 @@
     <t>owner@email.com</t>
   </si>
   <si>
+    <t>Aheng</t>
+  </si>
+  <si>
+    <t>082121273909</t>
+  </si>
+  <si>
+    <t>06:46:00</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>bintantramy@gmail.com</t>
+  </si>
+  <si>
     <t>Wawuhaaaay</t>
   </si>
   <si>
     <t>14:25:00</t>
   </si>
   <si>
-    <t>bintantramy@gmail.com</t>
-  </si>
-  <si>
     <t>Antekaaaa</t>
   </si>
   <si>
@@ -113,9 +131,6 @@
     <t>19:02:00</t>
   </si>
   <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
     <t>Hehak</t>
   </si>
   <si>
@@ -129,6 +144,21 @@
   </si>
   <si>
     <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>Anwar</t>
+  </si>
+  <si>
+    <t>15:03:00</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>ramyabyyu43@gmail.com</t>
+  </si>
+  <si>
+    <t>16:15:00</t>
   </si>
   <si>
     <t>Hehahahaha</t>
@@ -498,7 +528,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +536,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,385 +573,505 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
         <v>20</v>
       </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
